--- a/pulser_data_313.xlsx
+++ b/pulser_data_313.xlsx
@@ -1,18 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="352" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21900" windowHeight="13460" tabRatio="352"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -67,30 +71,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,7 +88,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -110,1245 +96,1527 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E142"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A109" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A119" activeCellId="0" pane="topLeft" sqref="A119"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5764705882353"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.3450980392157"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.8941176470588"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4078431372549"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5764705882353"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:4" ht="12">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:4" ht="12">
+      <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>540</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>700</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
-      <c r="C3" s="0" t="n">
+    <row r="3" spans="1:4" ht="12">
+      <c r="C3">
         <v>540</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>700</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
-      <c r="C4" s="0" t="n">
+    <row r="4" spans="1:4" ht="12">
+      <c r="C4">
         <v>540</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>650</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
-      <c r="C5" s="0" t="n">
+    <row r="5" spans="1:4" ht="12">
+      <c r="C5">
         <v>520</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>740</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
-      <c r="C6" s="0" t="n">
+    <row r="6" spans="1:4" ht="12">
+      <c r="C6">
         <v>540</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>700</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
-      <c r="C7" s="0" t="n">
+    <row r="7" spans="1:4" ht="12">
+      <c r="C7">
         <v>540</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>700</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
-      <c r="C8" s="0" t="n">
+    <row r="8" spans="1:4" ht="12">
+      <c r="C8">
         <v>540</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>700</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
-      <c r="C9" s="0" t="n">
+    <row r="9" spans="1:4" ht="12">
+      <c r="C9">
         <v>510</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>640</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
-      <c r="C10" s="0" t="n">
+    <row r="10" spans="1:4" ht="12">
+      <c r="C10">
         <v>560</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10">
         <v>700</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
-      <c r="C11" s="0" t="n">
+    <row r="11" spans="1:4" ht="12">
+      <c r="C11">
         <v>560</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11">
         <v>700</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
-      <c r="C12" s="0" t="n">
+    <row r="12" spans="1:4" ht="12">
+      <c r="C12">
         <v>500</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12">
         <v>700</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
-      <c r="C13" s="0" t="n">
+    <row r="13" spans="1:4" ht="12">
+      <c r="C13">
         <v>540</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13">
         <v>700</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
-      <c r="C14" s="0" t="n">
+    <row r="14" spans="1:4" ht="12">
+      <c r="C14">
         <v>540</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14">
         <v>700</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
-      <c r="C15" s="0" t="n">
+    <row r="15" spans="1:4" ht="12">
+      <c r="C15">
         <v>540</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15">
         <v>700</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
-      <c r="C16" s="0" t="n">
+    <row r="16" spans="1:4" ht="12">
+      <c r="C16">
         <v>540</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16">
         <v>700</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
-      <c r="C17" s="0" t="n">
+    <row r="17" spans="1:4" ht="12">
+      <c r="C17">
         <v>540</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17">
         <v>680</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
-      <c r="C18" s="0" t="n">
+    <row r="18" spans="1:4" ht="12">
+      <c r="C18">
         <v>540</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18">
         <v>700</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
-      <c r="C19" s="0" t="n">
+    <row r="19" spans="1:4" ht="12">
+      <c r="C19">
         <v>540</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19">
         <v>700</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
-      <c r="C20" s="0" t="n">
+    <row r="20" spans="1:4" ht="12">
+      <c r="C20">
         <v>540</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20">
         <v>690</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
-      <c r="C21" s="0" t="n">
+    <row r="21" spans="1:4" ht="12">
+      <c r="C21">
         <v>540</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21">
         <v>690</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
-      <c r="A22" s="0" t="n">
+    <row r="22" spans="1:4" ht="12">
+      <c r="A22">
         <v>2</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22">
         <v>1125</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
-      <c r="D23" s="0" t="n">
+    <row r="23" spans="1:4" ht="12">
+      <c r="D23">
         <v>1135</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
-      <c r="D24" s="0" t="n">
+    <row r="24" spans="1:4" ht="12">
+      <c r="D24">
         <v>1135</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
-      <c r="D25" s="0" t="n">
+    <row r="25" spans="1:4" ht="12">
+      <c r="D25">
         <v>1130</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
-      <c r="D26" s="0" t="n">
+    <row r="26" spans="1:4" ht="12">
+      <c r="D26">
         <v>1130</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
-      <c r="D27" s="0" t="n">
+    <row r="27" spans="1:4" ht="12">
+      <c r="D27">
         <v>1110</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
-      <c r="D28" s="0" t="n">
+    <row r="28" spans="1:4" ht="12">
+      <c r="D28">
         <v>1120</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
-      <c r="D29" s="0" t="n">
+    <row r="29" spans="1:4" ht="12">
+      <c r="D29">
         <v>1130</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
-      <c r="D30" s="0" t="n">
+    <row r="30" spans="1:4" ht="12">
+      <c r="D30">
         <v>1130</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
-      <c r="D31" s="0" t="n">
+    <row r="31" spans="1:4" ht="12">
+      <c r="D31">
         <v>1120</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
-      <c r="D32" s="0" t="n">
+    <row r="32" spans="1:4" ht="12">
+      <c r="D32">
         <v>1110</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
-      <c r="D33" s="0" t="n">
+    <row r="33" spans="1:4" ht="12">
+      <c r="D33">
         <v>1120</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
-      <c r="D34" s="0" t="n">
+    <row r="34" spans="1:4" ht="12">
+      <c r="D34">
         <v>1110</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
-      <c r="D35" s="0" t="n">
+    <row r="35" spans="1:4" ht="12">
+      <c r="D35">
         <v>1120</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
-      <c r="D36" s="0" t="n">
+    <row r="36" spans="1:4" ht="12">
+      <c r="D36">
         <v>1130</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
-      <c r="D37" s="0" t="n">
+    <row r="37" spans="1:4" ht="12">
+      <c r="D37">
         <v>1120</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
-      <c r="D38" s="0" t="n">
+    <row r="38" spans="1:4" ht="12">
+      <c r="D38">
         <v>1120</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
-      <c r="D39" s="0" t="n">
+    <row r="39" spans="1:4" ht="12">
+      <c r="D39">
         <v>1100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
-      <c r="D40" s="0" t="n">
+    <row r="40" spans="1:4" ht="12">
+      <c r="D40">
         <v>1130</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
-      <c r="D41" s="0" t="n">
+    <row r="41" spans="1:4" ht="12">
+      <c r="D41">
         <v>1100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
-      <c r="A42" s="0" t="n">
+    <row r="42" spans="1:4" ht="12">
+      <c r="A42">
         <v>2</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42">
         <v>564</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
-      <c r="D43" s="0" t="n">
+    <row r="43" spans="1:4" ht="12">
+      <c r="D43">
         <v>568</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
-      <c r="D44" s="0" t="n">
+    <row r="44" spans="1:4" ht="12">
+      <c r="D44">
         <v>565</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
-      <c r="D45" s="0" t="n">
+    <row r="45" spans="1:4" ht="12">
+      <c r="D45">
         <v>560</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
-      <c r="D46" s="0" t="n">
+    <row r="46" spans="1:4" ht="12">
+      <c r="D46">
         <v>582</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
-      <c r="D47" s="0" t="n">
+    <row r="47" spans="1:4" ht="12">
+      <c r="D47">
         <v>562</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
-      <c r="D48" s="0" t="n">
+    <row r="48" spans="1:4" ht="12">
+      <c r="D48">
         <v>574</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
-      <c r="D49" s="0" t="n">
+    <row r="49" spans="1:4" ht="12">
+      <c r="D49">
         <v>570</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
-      <c r="D50" s="0" t="n">
+    <row r="50" spans="1:4" ht="12">
+      <c r="D50">
         <v>573</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
-      <c r="D51" s="0" t="n">
+    <row r="51" spans="1:4" ht="12">
+      <c r="D51">
         <v>590</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
-      <c r="D52" s="0" t="n">
+    <row r="52" spans="1:4" ht="12">
+      <c r="D52">
         <v>575</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
-      <c r="D53" s="0" t="n">
+    <row r="53" spans="1:4" ht="12">
+      <c r="D53">
         <v>586</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
-      <c r="D54" s="0" t="n">
+    <row r="54" spans="1:4" ht="12">
+      <c r="D54">
         <v>585</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
-      <c r="D55" s="0" t="n">
+    <row r="55" spans="1:4" ht="12">
+      <c r="D55">
         <v>560</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
-      <c r="D56" s="0" t="n">
+    <row r="56" spans="1:4" ht="12">
+      <c r="D56">
         <v>575</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
-      <c r="D57" s="0" t="n">
+    <row r="57" spans="1:4" ht="12">
+      <c r="D57">
         <v>575</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
-      <c r="D58" s="0" t="n">
+    <row r="58" spans="1:4" ht="12">
+      <c r="D58">
         <v>580</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
-      <c r="D59" s="0" t="n">
+    <row r="59" spans="1:4" ht="12">
+      <c r="D59">
         <v>560</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
-      <c r="D60" s="0" t="n">
+    <row r="60" spans="1:4" ht="12">
+      <c r="D60">
         <v>566</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
-      <c r="D61" s="0" t="n">
+    <row r="61" spans="1:4" ht="12">
+      <c r="D61">
         <v>571</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
-      <c r="C62" s="0" t="s">
+    <row r="62" spans="1:4" ht="12">
+      <c r="C62" t="s">
         <v>7</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" t="s">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
-      <c r="A63" s="0" t="n">
+    <row r="63" spans="1:4" ht="12">
+      <c r="A63">
         <v>2</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" t="s">
         <v>9</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63">
         <v>573</v>
       </c>
-      <c r="D63" s="0" t="n">
+      <c r="D63">
         <v>1450</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
-      <c r="C64" s="0" t="n">
+    <row r="64" spans="1:4" ht="12">
+      <c r="C64">
         <v>562</v>
       </c>
-      <c r="D64" s="0" t="n">
+      <c r="D64">
         <v>1440</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
-      <c r="C65" s="0" t="n">
+    <row r="65" spans="3:4" ht="12">
+      <c r="C65">
         <v>1096</v>
       </c>
-      <c r="D65" s="0" t="n">
+      <c r="D65">
         <v>1150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
-      <c r="C66" s="0" t="n">
+    <row r="66" spans="3:4" ht="12">
+      <c r="C66">
         <v>1100</v>
       </c>
-      <c r="D66" s="0" t="n">
+      <c r="D66">
         <v>1111</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
-      <c r="C67" s="0" t="n">
+    <row r="67" spans="3:4" ht="12">
+      <c r="C67">
         <v>568</v>
       </c>
-      <c r="D67" s="0" t="n">
+      <c r="D67">
         <v>1445</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
-      <c r="C68" s="0" t="n">
+    <row r="68" spans="3:4" ht="12">
+      <c r="C68">
         <v>563</v>
       </c>
-      <c r="D68" s="0" t="n">
+      <c r="D68">
         <v>1445</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
-      <c r="C69" s="0" t="n">
+    <row r="69" spans="3:4" ht="12">
+      <c r="C69">
         <v>1092</v>
       </c>
-      <c r="D69" s="0" t="n">
+      <c r="D69">
         <v>1108</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
-      <c r="C70" s="0" t="n">
+    <row r="70" spans="3:4" ht="12">
+      <c r="C70">
         <v>1090</v>
       </c>
-      <c r="D70" s="0" t="n">
+      <c r="D70">
         <v>1106</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
-      <c r="C71" s="0" t="n">
+    <row r="71" spans="3:4" ht="12">
+      <c r="C71">
         <v>1094</v>
       </c>
-      <c r="D71" s="0" t="n">
+      <c r="D71">
         <v>1111</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
-      <c r="C72" s="0" t="n">
+    <row r="72" spans="3:4" ht="12">
+      <c r="C72">
         <v>1097</v>
       </c>
-      <c r="D72" s="0" t="n">
+      <c r="D72">
         <v>1110</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
-      <c r="C73" s="0" t="n">
+    <row r="73" spans="3:4" ht="12">
+      <c r="C73">
         <v>573</v>
       </c>
-      <c r="D73" s="0" t="n">
+      <c r="D73">
         <v>1440</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
-      <c r="C74" s="0" t="n">
+    <row r="74" spans="3:4" ht="12">
+      <c r="C74">
         <v>586</v>
       </c>
-      <c r="D74" s="0" t="n">
+      <c r="D74">
         <v>1450</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
-      <c r="C75" s="0" t="n">
+    <row r="75" spans="3:4" ht="12">
+      <c r="C75">
         <v>560</v>
       </c>
-      <c r="D75" s="0" t="n">
+      <c r="D75">
         <v>1440</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
-      <c r="C76" s="0" t="n">
+    <row r="76" spans="3:4" ht="12">
+      <c r="C76">
         <v>576</v>
       </c>
-      <c r="D76" s="0" t="n">
+      <c r="D76">
         <v>1450</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
-      <c r="C77" s="0" t="n">
+    <row r="77" spans="3:4" ht="12">
+      <c r="C77">
         <v>1098</v>
       </c>
-      <c r="D77" s="0" t="n">
+      <c r="D77">
         <v>1110</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
-      <c r="C78" s="0" t="n">
+    <row r="78" spans="3:4" ht="12">
+      <c r="C78">
         <v>1087</v>
       </c>
-      <c r="D78" s="0" t="n">
+      <c r="D78">
         <v>1105</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
-      <c r="C79" s="0" t="n">
+    <row r="79" spans="3:4" ht="12">
+      <c r="C79">
         <v>569</v>
       </c>
-      <c r="D79" s="0" t="n">
+      <c r="D79">
         <v>1148</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
-      <c r="C80" s="0" t="n">
+    <row r="80" spans="3:4" ht="12">
+      <c r="C80">
         <v>562</v>
       </c>
-      <c r="D80" s="0" t="n">
+      <c r="D80">
         <v>1148</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
-      <c r="C81" s="0" t="n">
+    <row r="81" spans="1:4" ht="12">
+      <c r="C81">
         <v>1100</v>
       </c>
-      <c r="D81" s="0" t="n">
+      <c r="D81">
         <v>1114</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
-      <c r="C82" s="0" t="n">
+    <row r="82" spans="1:4" ht="12">
+      <c r="C82">
         <v>1099</v>
       </c>
-      <c r="D82" s="0" t="n">
+      <c r="D82">
         <v>1115</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="83">
-      <c r="C83" s="0" t="s">
+    <row r="83" spans="1:4" ht="12">
+      <c r="C83" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="D83" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="84">
-      <c r="A84" s="0" t="n">
+    <row r="84" spans="1:4" ht="12">
+      <c r="A84">
         <v>2</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" t="s">
         <v>11</v>
       </c>
-      <c r="C84" s="0" t="n">
+      <c r="C84">
         <v>574</v>
       </c>
-      <c r="D84" s="0" t="n">
+      <c r="D84">
         <v>326.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="85">
-      <c r="C85" s="0" t="n">
+    <row r="85" spans="1:4" ht="12">
+      <c r="C85">
         <v>577</v>
       </c>
-      <c r="D85" s="0" t="n">
+      <c r="D85">
         <v>315</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
-      <c r="C86" s="0" t="n">
+    <row r="86" spans="1:4" ht="12">
+      <c r="C86">
         <v>569</v>
       </c>
-      <c r="D86" s="0" t="n">
+      <c r="D86">
         <v>326</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
-      <c r="C87" s="0" t="n">
+    <row r="87" spans="1:4" ht="12">
+      <c r="C87">
         <v>586</v>
       </c>
-      <c r="D87" s="0" t="n">
+      <c r="D87">
         <v>326</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
-      <c r="C88" s="0" t="n">
+    <row r="88" spans="1:4" ht="12">
+      <c r="C88">
         <v>571</v>
       </c>
-      <c r="D88" s="0" t="n">
+      <c r="D88">
         <v>337</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
-      <c r="C89" s="0" t="n">
+    <row r="89" spans="1:4" ht="12">
+      <c r="C89">
         <v>574</v>
       </c>
-      <c r="D89" s="0" t="n">
+      <c r="D89">
         <v>330</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="90">
-      <c r="C90" s="0" t="n">
+    <row r="90" spans="1:4" ht="12">
+      <c r="C90">
         <v>586</v>
       </c>
-      <c r="D90" s="0" t="n">
+      <c r="D90">
         <v>324</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
-      <c r="C91" s="0" t="n">
+    <row r="91" spans="1:4" ht="12">
+      <c r="C91">
         <v>578</v>
       </c>
-      <c r="D91" s="0" t="n">
+      <c r="D91">
         <v>320</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="92">
-      <c r="C92" s="0" t="n">
+    <row r="92" spans="1:4" ht="12">
+      <c r="C92">
         <v>575</v>
       </c>
-      <c r="D92" s="0" t="n">
+      <c r="D92">
         <v>348</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="93">
-      <c r="C93" s="0" t="n">
+    <row r="93" spans="1:4" ht="12">
+      <c r="C93">
         <v>571</v>
       </c>
-      <c r="D93" s="0" t="n">
+      <c r="D93">
         <v>338</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="94">
-      <c r="C94" s="0" t="n">
+    <row r="94" spans="1:4" ht="12">
+      <c r="C94">
         <v>590</v>
       </c>
-      <c r="D94" s="0" t="n">
+      <c r="D94">
         <v>317</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="95">
-      <c r="C95" s="0" t="n">
+    <row r="95" spans="1:4" ht="12">
+      <c r="C95">
         <v>590</v>
       </c>
-      <c r="D95" s="0" t="n">
+      <c r="D95">
         <v>317</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="96">
-      <c r="C96" s="0" t="n">
+    <row r="96" spans="1:4" ht="12">
+      <c r="C96">
         <v>587</v>
       </c>
-      <c r="D96" s="0" t="n">
+      <c r="D96">
         <v>324</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="97">
-      <c r="C97" s="0" t="n">
+    <row r="97" spans="1:4" ht="12">
+      <c r="C97">
         <v>570</v>
       </c>
-      <c r="D97" s="0" t="n">
+      <c r="D97">
         <v>318</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="98">
-      <c r="C98" s="0" t="n">
+    <row r="98" spans="1:4" ht="12">
+      <c r="C98">
         <v>582</v>
       </c>
-      <c r="D98" s="0" t="n">
+      <c r="D98">
         <v>305</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="99">
-      <c r="C99" s="0" t="n">
+    <row r="99" spans="1:4" ht="12">
+      <c r="C99">
         <v>585</v>
       </c>
-      <c r="D99" s="0" t="n">
+      <c r="D99">
         <v>324</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="100">
-      <c r="C100" s="0" t="n">
+    <row r="100" spans="1:4" ht="12">
+      <c r="C100">
         <v>587</v>
       </c>
-      <c r="D100" s="0" t="n">
+      <c r="D100">
         <v>340</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="101">
-      <c r="C101" s="0" t="n">
+    <row r="101" spans="1:4" ht="12">
+      <c r="C101">
         <v>563</v>
       </c>
-      <c r="D101" s="0" t="n">
+      <c r="D101">
         <v>336</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="102">
-      <c r="C102" s="0" t="n">
+    <row r="102" spans="1:4" ht="12">
+      <c r="C102">
         <v>577</v>
       </c>
-      <c r="D102" s="0" t="n">
+      <c r="D102">
         <v>334</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="103">
-      <c r="C103" s="0" t="s">
+    <row r="103" spans="1:4" ht="12">
+      <c r="C103" t="s">
         <v>8</v>
       </c>
-      <c r="D103" s="0" t="s">
+      <c r="D103" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="104">
-      <c r="A104" s="0" t="n">
+    <row r="104" spans="1:4" ht="12">
+      <c r="A104">
         <v>2</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B104" t="s">
         <v>12</v>
       </c>
-      <c r="C104" s="0" t="n">
+      <c r="C104">
         <v>1130</v>
       </c>
-      <c r="D104" s="0" t="n">
+      <c r="D104">
         <v>325</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="105">
-      <c r="C105" s="0" t="n">
+    <row r="105" spans="1:4" ht="12">
+      <c r="C105">
         <v>1128</v>
       </c>
-      <c r="D105" s="0" t="n">
+      <c r="D105">
         <v>332</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="106">
-      <c r="C106" s="0" t="n">
+    <row r="106" spans="1:4" ht="12">
+      <c r="C106">
         <v>1121</v>
       </c>
-      <c r="D106" s="0" t="n">
+      <c r="D106">
         <v>332</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="107">
-      <c r="C107" s="0" t="n">
+    <row r="107" spans="1:4" ht="12">
+      <c r="C107">
         <v>1106</v>
       </c>
-      <c r="D107" s="0" t="n">
+      <c r="D107">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="108">
-      <c r="C108" s="0" t="n">
+    <row r="108" spans="1:4" ht="12">
+      <c r="C108">
         <v>1126</v>
       </c>
-      <c r="D108" s="0" t="n">
+      <c r="D108">
         <v>326</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="109">
-      <c r="C109" s="0" t="n">
+    <row r="109" spans="1:4" ht="12">
+      <c r="C109">
         <v>1110</v>
       </c>
-      <c r="D109" s="0" t="n">
+      <c r="D109">
         <v>315</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="110">
-      <c r="C110" s="0" t="n">
+    <row r="110" spans="1:4" ht="12">
+      <c r="C110">
         <v>1111</v>
       </c>
-      <c r="D110" s="0" t="n">
+      <c r="D110">
         <v>335</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="111">
-      <c r="C111" s="0" t="n">
+    <row r="111" spans="1:4" ht="12">
+      <c r="C111">
         <v>1116</v>
       </c>
-      <c r="D111" s="0" t="n">
+      <c r="D111">
         <v>316</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="112">
-      <c r="C112" s="0" t="n">
+    <row r="112" spans="1:4" ht="12">
+      <c r="C112">
         <v>1111</v>
       </c>
-      <c r="D112" s="0" t="n">
+      <c r="D112">
         <v>316</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="113">
-      <c r="C113" s="0" t="n">
+    <row r="113" spans="1:5" ht="12">
+      <c r="C113">
         <v>1135</v>
       </c>
-      <c r="D113" s="0" t="n">
+      <c r="D113">
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="114">
-      <c r="C114" s="0" t="n">
+    <row r="114" spans="1:5" ht="12">
+      <c r="C114">
         <v>1130</v>
       </c>
-      <c r="D114" s="0" t="n">
+      <c r="D114">
         <v>344</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="115">
-      <c r="C115" s="0" t="n">
+    <row r="115" spans="1:5" ht="12">
+      <c r="C115">
         <v>1134</v>
       </c>
-      <c r="D115" s="0" t="n">
+      <c r="D115">
         <v>363</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="116">
-      <c r="C116" s="0" t="n">
+    <row r="116" spans="1:5" ht="12">
+      <c r="C116">
         <v>1115</v>
       </c>
-      <c r="D116" s="0" t="n">
+      <c r="D116">
         <v>344</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="117">
-      <c r="C117" s="0" t="n">
+    <row r="117" spans="1:5" ht="12">
+      <c r="C117">
         <v>1105</v>
       </c>
-      <c r="D117" s="0" t="n">
+      <c r="D117">
         <v>299</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="118">
-      <c r="C118" s="0" t="n">
+    <row r="118" spans="1:5" ht="12">
+      <c r="C118">
         <v>1111</v>
       </c>
-      <c r="D118" s="0" t="n">
+      <c r="D118">
         <v>335</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="119">
-      <c r="C119" s="0" t="n">
+    <row r="119" spans="1:5" ht="12">
+      <c r="C119">
         <v>1120</v>
       </c>
-      <c r="D119" s="0" t="n">
+      <c r="D119">
         <v>320</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="120">
-      <c r="C120" s="0" t="n">
+    <row r="120" spans="1:5" ht="12">
+      <c r="C120">
         <v>1129</v>
       </c>
-      <c r="D120" s="0" t="n">
+      <c r="D120">
         <v>329</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="121">
-      <c r="C121" s="0" t="n">
+    <row r="121" spans="1:5" ht="12">
+      <c r="C121">
         <v>1124</v>
       </c>
-      <c r="D121" s="0" t="n">
+      <c r="D121">
         <v>344</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="122">
-      <c r="C122" s="0" t="n">
+    <row r="122" spans="1:5" ht="12">
+      <c r="C122">
         <v>1133</v>
       </c>
-      <c r="D122" s="0" t="n">
+      <c r="D122">
         <v>338</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123">
-      <c r="C123" s="0" t="s">
+    <row r="123" spans="1:5" ht="12">
+      <c r="C123" t="s">
         <v>8</v>
       </c>
-      <c r="D123" s="0" t="s">
+      <c r="D123" t="s">
         <v>10</v>
       </c>
-      <c r="E123" s="0" t="s">
+      <c r="E123" t="s">
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="124">
-      <c r="A124" s="0" t="n">
+    <row r="124" spans="1:5" ht="12">
+      <c r="A124">
         <v>2</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="B124" t="s">
         <v>14</v>
       </c>
-      <c r="C124" s="0" t="n">
+      <c r="C124">
         <v>1450</v>
       </c>
-      <c r="D124" s="0" t="n">
+      <c r="D124">
         <v>315</v>
       </c>
-      <c r="E124" s="0" t="n">
+      <c r="E124">
         <v>567</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="125">
-      <c r="C125" s="0" t="n">
+    <row r="125" spans="1:5" ht="12">
+      <c r="C125">
         <v>1445</v>
       </c>
-      <c r="D125" s="0" t="n">
+      <c r="D125">
         <v>315</v>
       </c>
-      <c r="E125" s="0" t="n">
+      <c r="E125">
         <v>562</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="126">
-      <c r="C126" s="0" t="n">
+    <row r="126" spans="1:5" ht="12">
+      <c r="C126">
         <v>1111</v>
       </c>
-      <c r="D126" s="0" t="n">
+      <c r="D126">
         <v>317</v>
       </c>
-      <c r="E126" s="0" t="n">
+      <c r="E126">
         <v>1098</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="127">
-      <c r="C127" s="0" t="n">
+    <row r="127" spans="1:5" ht="12">
+      <c r="C127">
         <v>1450</v>
       </c>
-      <c r="D127" s="0" t="n">
+      <c r="D127">
         <v>330</v>
       </c>
-      <c r="E127" s="0" t="n">
+      <c r="E127">
         <v>573</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="128">
-      <c r="C128" s="0" t="n">
+    <row r="128" spans="1:5" ht="12">
+      <c r="C128">
         <v>1456</v>
       </c>
-      <c r="D128" s="0" t="n">
+      <c r="D128">
         <v>335</v>
       </c>
-      <c r="E128" s="0" t="n">
+      <c r="E128">
         <v>573</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="129">
-      <c r="C129" s="0" t="n">
+    <row r="129" spans="3:5" ht="12">
+      <c r="C129">
         <v>1450</v>
       </c>
-      <c r="D129" s="0" t="n">
+      <c r="D129">
         <v>322</v>
       </c>
-      <c r="E129" s="0" t="n">
+      <c r="E129">
         <v>570</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="130">
-      <c r="C130" s="0" t="n">
+    <row r="130" spans="3:5" ht="12">
+      <c r="C130">
         <v>1108</v>
       </c>
-      <c r="D130" s="0" t="n">
+      <c r="D130">
         <v>330</v>
       </c>
-      <c r="E130" s="0" t="n">
+      <c r="E130">
         <v>1088</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="131">
-      <c r="C131" s="0" t="n">
+    <row r="131" spans="3:5" ht="12">
+      <c r="C131">
         <v>1440</v>
       </c>
-      <c r="D131" s="0" t="n">
+      <c r="D131">
         <v>336</v>
       </c>
-      <c r="E131" s="0" t="n">
+      <c r="E131">
         <v>564</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="132">
-      <c r="C132" s="0" t="n">
+    <row r="132" spans="3:5" ht="12">
+      <c r="C132">
         <v>1453</v>
       </c>
-      <c r="D132" s="0" t="n">
+      <c r="D132">
         <v>347</v>
       </c>
-      <c r="E132" s="0" t="n">
+      <c r="E132">
         <v>570</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="133">
-      <c r="C133" s="0" t="n">
+    <row r="133" spans="3:5" ht="12">
+      <c r="C133">
         <v>1450</v>
       </c>
-      <c r="D133" s="0" t="n">
+      <c r="D133">
         <v>330</v>
       </c>
-      <c r="E133" s="0" t="n">
+      <c r="E133">
         <v>568</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="134">
-      <c r="C134" s="0" t="n">
+    <row r="134" spans="3:5" ht="12">
+      <c r="C134">
         <v>1087</v>
       </c>
-      <c r="D134" s="0" t="n">
+      <c r="D134">
         <v>313</v>
       </c>
-      <c r="E134" s="0" t="n">
+      <c r="E134">
         <v>1100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="135">
-      <c r="C135" s="0" t="n">
+    <row r="135" spans="3:5" ht="12">
+      <c r="C135">
         <v>1113</v>
       </c>
-      <c r="D135" s="0" t="n">
+      <c r="D135">
         <v>329</v>
       </c>
-      <c r="E135" s="0" t="n">
+      <c r="E135">
         <v>1097</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="136">
-      <c r="C136" s="0" t="n">
+    <row r="136" spans="3:5" ht="12">
+      <c r="C136">
         <v>1113</v>
       </c>
-      <c r="D136" s="0" t="n">
+      <c r="D136">
         <v>319</v>
       </c>
-      <c r="E136" s="0" t="n">
+      <c r="E136">
         <v>1097</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="137">
-      <c r="C137" s="0" t="n">
+    <row r="137" spans="3:5" ht="12">
+      <c r="C137">
         <v>1115</v>
       </c>
-      <c r="D137" s="0" t="n">
+      <c r="D137">
         <v>340</v>
       </c>
-      <c r="E137" s="0" t="n">
+      <c r="E137">
         <v>1099</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="138">
-      <c r="C138" s="0" t="n">
+    <row r="138" spans="3:5" ht="12">
+      <c r="C138">
         <v>1115</v>
       </c>
-      <c r="D138" s="0" t="n">
+      <c r="D138">
         <v>332</v>
       </c>
-      <c r="E138" s="0" t="n">
+      <c r="E138">
         <v>1103</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="139">
-      <c r="C139" s="0" t="n">
+    <row r="139" spans="3:5" ht="12">
+      <c r="C139">
         <v>1107</v>
       </c>
-      <c r="D139" s="0" t="n">
+      <c r="D139">
         <v>312</v>
       </c>
-      <c r="E139" s="0" t="n">
+      <c r="E139">
         <v>1090</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="140">
-      <c r="C140" s="0" t="n">
+    <row r="140" spans="3:5" ht="12">
+      <c r="C140">
         <v>1111</v>
       </c>
-      <c r="D140" s="0" t="n">
+      <c r="D140">
         <v>316</v>
       </c>
-      <c r="E140" s="0" t="n">
+      <c r="E140">
         <v>1098</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="141">
-      <c r="C141" s="0" t="n">
+    <row r="141" spans="3:5" ht="12">
+      <c r="C141">
         <v>1110</v>
       </c>
-      <c r="D141" s="0" t="n">
+      <c r="D141">
         <v>313</v>
       </c>
-      <c r="E141" s="0" t="n">
+      <c r="E141">
         <v>1091</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="142">
-      <c r="C142" s="0" t="n">
+    <row r="142" spans="3:5" ht="12">
+      <c r="C142">
         <v>1110</v>
       </c>
-      <c r="D142" s="0" t="n">
+      <c r="D142">
         <v>314</v>
       </c>
-      <c r="E142" s="0" t="n">
+      <c r="E142">
         <v>1096</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>